--- a/data/trans_dic/IP74A2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP74A2_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,14%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 84,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,84; 88,29</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>57,84%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>14,21; 86,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>27,55; 90,41</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,77%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,26; 83,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>25,05; 87,92</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,38%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 83,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>35,76; 98,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>32,07; 90,34</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>62,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>61,4%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>31,26; 80,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>40,46; 83,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>45,72; 76,58</t>
         </is>
       </c>
     </row>
